--- a/data/liftingexceldoc.xlsx
+++ b/data/liftingexceldoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boydk\Desktop\Personal Lifting Project\py-project-directory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83999D-20DE-428E-BB3D-0E0D5AE5F74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C05C27-5075-412D-BC1B-78C6796D67C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{8B3EE465-2883-4BE7-9439-FC93EB33E87B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="9" xr2:uid="{8B3EE465-2883-4BE7-9439-FC93EB33E87B}"/>
   </bookViews>
   <sheets>
     <sheet name="Macrocycle" sheetId="3" r:id="rId1"/>
@@ -2836,17 +2836,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F81FDCF-BDF5-4709-B81D-7793554E6848}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -6212,7 +6210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6486572-3031-4711-8E4A-D6D5766FDAF2}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>

--- a/data/liftingexceldoc.xlsx
+++ b/data/liftingexceldoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boydk\Desktop\Personal Lifting Project\py-project-directory\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackboyd/Desktop/personal lifting project/Lifting-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C05C27-5075-412D-BC1B-78C6796D67C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3033907A-B1C8-824B-AFD8-A3393965BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="9" xr2:uid="{8B3EE465-2883-4BE7-9439-FC93EB33E87B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" firstSheet="8" activeTab="11" xr2:uid="{8B3EE465-2883-4BE7-9439-FC93EB33E87B}"/>
   </bookViews>
   <sheets>
     <sheet name="Macrocycle" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="Chest 3 - Previous Lift" sheetId="5" r:id="rId8"/>
     <sheet name="For DB - Lifts" sheetId="6" r:id="rId9"/>
     <sheet name="For DB - Routines" sheetId="14" r:id="rId10"/>
-    <sheet name="For DB - Workouts" sheetId="16" r:id="rId11"/>
-    <sheet name="For DB - Users" sheetId="17" r:id="rId12"/>
-    <sheet name="For DB - Movements" sheetId="18" r:id="rId13"/>
+    <sheet name="For DB - Workouts - Old" sheetId="16" r:id="rId11"/>
+    <sheet name="For DB - Workouts" sheetId="19" r:id="rId12"/>
+    <sheet name="For DB - Users" sheetId="17" r:id="rId13"/>
+    <sheet name="For DB - Movements" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'For DB - Lifts'!$A$1:$Q$404</definedName>
@@ -33,7 +34,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="215">
   <si>
     <t>Mesocycle 1</t>
   </si>
@@ -698,6 +699,9 @@
   <si>
     <t>Weight3</t>
   </si>
+  <si>
+    <t>Off Day</t>
+  </si>
 </sst>
 </file>
 
@@ -860,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -937,6 +941,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1852,20 +1857,20 @@
       <selection activeCell="E20" sqref="E20:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="3"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
@@ -1895,7 +1900,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
@@ -1927,7 +1932,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="33"/>
@@ -1953,7 +1958,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="33"/>
@@ -1979,7 +1984,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="33"/>
@@ -2005,7 +2010,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="33"/>
@@ -2031,7 +2036,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="33"/>
@@ -2057,7 +2062,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="33" t="s">
@@ -2094,7 +2099,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="33"/>
@@ -2120,7 +2125,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="33"/>
@@ -2146,7 +2151,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="33"/>
@@ -2181,7 +2186,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="33"/>
@@ -2207,7 +2212,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="33"/>
@@ -2233,7 +2238,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="33" t="s">
@@ -2282,7 +2287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="33"/>
@@ -2317,7 +2322,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="50" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="33"/>
@@ -2337,7 +2342,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="33"/>
@@ -2381,7 +2386,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="33"/>
@@ -2416,7 +2421,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="51" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
@@ -2436,7 +2441,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
       <c r="B20" s="30" t="s">
         <v>1</v>
@@ -2454,7 +2459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="33"/>
@@ -2468,7 +2473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="33"/>
@@ -2482,7 +2487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="33"/>
@@ -2496,7 +2501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="33"/>
@@ -2510,7 +2515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="33"/>
@@ -2524,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="33" t="s">
@@ -2540,7 +2545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="33"/>
@@ -2554,7 +2559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="33"/>
@@ -2568,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="33"/>
@@ -2582,7 +2587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="33"/>
@@ -2596,7 +2601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="33"/>
@@ -2610,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="50" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="33" t="s">
@@ -2626,7 +2631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="50" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="33"/>
@@ -2640,7 +2645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="50" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="33"/>
@@ -2654,7 +2659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="50" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="33"/>
@@ -2668,7 +2673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="50" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="33"/>
@@ -2682,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="50" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="33"/>
@@ -2696,115 +2701,115 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D48"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D65"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D66"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D67"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D68"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D69"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D70"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D71"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D72"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D73"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74"/>
     </row>
@@ -2836,20 +2841,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F81FDCF-BDF5-4709-B81D-7793554E6848}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -2884,7 +2889,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2942,7 +2947,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2971,7 +2976,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3000,7 +3005,7 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3029,7 +3034,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3055,10 +3060,10 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="18"/>
     </row>
   </sheetData>
@@ -3070,35 +3075,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4269B083-4106-4CF3-8C7B-7718884D2127}">
   <dimension ref="A2:V94"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:G87"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3130,7 +3135,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3162,7 +3167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3226,7 +3231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -3258,7 +3263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3290,7 +3295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>97</v>
       </c>
@@ -3324,7 +3329,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -3389,7 +3394,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1</v>
       </c>
@@ -3421,7 +3426,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>3</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>4</v>
       </c>
@@ -3505,7 +3510,7 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>5</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>45512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>6</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>7</v>
       </c>
@@ -3619,7 +3624,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>8</v>
       </c>
@@ -3645,7 +3650,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>9</v>
       </c>
@@ -3680,7 +3685,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>10</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>45464</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -3756,7 +3761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3789,7 +3794,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3855,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3888,7 +3893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3921,7 +3926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -4017,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -4047,7 +4052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -4077,7 +4082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10</v>
       </c>
@@ -4107,7 +4112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>11</v>
       </c>
@@ -4137,7 +4142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>12</v>
       </c>
@@ -4167,7 +4172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>13</v>
       </c>
@@ -4197,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>14</v>
       </c>
@@ -4230,7 +4235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>15</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>16</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>17</v>
       </c>
@@ -4332,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>18</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>19</v>
       </c>
@@ -4401,7 +4406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>20</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>21</v>
       </c>
@@ -4461,7 +4466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>22</v>
       </c>
@@ -4491,7 +4496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>23</v>
       </c>
@@ -4521,7 +4526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24</v>
       </c>
@@ -4551,7 +4556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>25</v>
       </c>
@@ -4581,7 +4586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>26</v>
       </c>
@@ -4611,7 +4616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>5</v>
       </c>
@@ -4641,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>5</v>
       </c>
@@ -4671,7 +4676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>5</v>
       </c>
@@ -4701,7 +4706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>5</v>
       </c>
@@ -4731,7 +4736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>5</v>
       </c>
@@ -4761,7 +4766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>5</v>
       </c>
@@ -4791,7 +4796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>5</v>
       </c>
@@ -4821,7 +4826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>6</v>
       </c>
@@ -4848,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>6</v>
       </c>
@@ -4875,7 +4880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>6</v>
       </c>
@@ -4905,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>6</v>
       </c>
@@ -4932,7 +4937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>6</v>
       </c>
@@ -4959,7 +4964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>6</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>6</v>
       </c>
@@ -5013,7 +5018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>7</v>
       </c>
@@ -5043,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>7</v>
       </c>
@@ -5073,7 +5078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>7</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>7</v>
       </c>
@@ -5133,7 +5138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>7</v>
       </c>
@@ -5163,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>8</v>
       </c>
@@ -5190,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>8</v>
       </c>
@@ -5217,7 +5222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>8</v>
       </c>
@@ -5244,7 +5249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>8</v>
       </c>
@@ -5271,7 +5276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>8</v>
       </c>
@@ -5298,7 +5303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>9</v>
       </c>
@@ -5328,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>9</v>
       </c>
@@ -5358,7 +5363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>9</v>
       </c>
@@ -5388,7 +5393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>9</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>9</v>
       </c>
@@ -5448,7 +5453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>10</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>10</v>
       </c>
@@ -5502,7 +5507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>10</v>
       </c>
@@ -5529,7 +5534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>10</v>
       </c>
@@ -5556,7 +5561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>10</v>
       </c>
@@ -5583,7 +5588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>2</v>
       </c>
@@ -5613,7 +5618,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>3</v>
       </c>
@@ -5643,7 +5648,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>4</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>5</v>
       </c>
@@ -5703,7 +5708,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>6</v>
       </c>
@@ -5733,7 +5738,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>7</v>
       </c>
@@ -5763,7 +5768,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>8</v>
       </c>
@@ -5793,7 +5798,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>9</v>
       </c>
@@ -5823,7 +5828,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>10</v>
       </c>
@@ -5859,6 +5864,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E5DE48-71B5-1A49-B14D-63C2E2D548D4}">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="34"/>
+    <col min="5" max="5" width="16.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="34"/>
+    <col min="7" max="8" width="10.83203125" style="20"/>
+    <col min="9" max="16384" width="10.83203125" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="34">
+        <v>999</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="34">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H3" s="20">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="34">
+        <v>2</v>
+      </c>
+      <c r="G4" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H4" s="20">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>1</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="34">
+        <v>3</v>
+      </c>
+      <c r="G5" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H5" s="20">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>1</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="34">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H6" s="20">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>1</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="34">
+        <v>5</v>
+      </c>
+      <c r="G7" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H7" s="20">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
+        <v>1</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="34">
+        <v>6</v>
+      </c>
+      <c r="G8" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H8" s="20">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
+        <v>2</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="34">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
+        <v>2</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="34">
+        <v>2</v>
+      </c>
+      <c r="G10" s="20">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
+        <v>2</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="34">
+        <v>3</v>
+      </c>
+      <c r="G11" s="20">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
+        <v>2</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="34">
+        <v>4</v>
+      </c>
+      <c r="G12" s="20">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="34">
+        <v>2</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="34">
+        <v>5</v>
+      </c>
+      <c r="G13" s="20">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
+        <v>2</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="34">
+        <v>6</v>
+      </c>
+      <c r="G14" s="20">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
+        <v>3</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="34">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
+        <v>3</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="34">
+        <v>2</v>
+      </c>
+      <c r="G16" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H16" s="20">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="34">
+        <v>3</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="34">
+        <v>3</v>
+      </c>
+      <c r="G17" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H17" s="20">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
+        <v>3</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="34">
+        <v>4</v>
+      </c>
+      <c r="G18" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H18" s="20">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="34">
+        <v>3</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="34">
+        <v>5</v>
+      </c>
+      <c r="F19" s="34">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H19" s="20">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="34">
+        <v>3</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="34">
+        <v>6</v>
+      </c>
+      <c r="F20" s="34">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H20" s="20">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="34">
+        <v>3</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="34">
+        <v>7</v>
+      </c>
+      <c r="G21" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H21" s="20">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="34">
+        <v>4</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="34">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="34">
+        <v>4</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="34">
+        <v>2</v>
+      </c>
+      <c r="G23" s="20">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="34">
+        <v>4</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="34">
+        <v>3</v>
+      </c>
+      <c r="G24" s="20">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
+        <v>4</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="34">
+        <v>4</v>
+      </c>
+      <c r="G25" s="20">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
+        <v>4</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="34">
+        <v>5</v>
+      </c>
+      <c r="G26" s="20">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="34">
+        <v>4</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="34">
+        <v>6</v>
+      </c>
+      <c r="G27" s="20">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="34">
+        <v>4</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="34">
+        <v>7</v>
+      </c>
+      <c r="G28" s="20">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="34">
+        <v>5</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="34">
+        <v>1</v>
+      </c>
+      <c r="G29" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H29" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="34">
+        <v>5</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="34">
+        <v>2</v>
+      </c>
+      <c r="G30" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H30" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="34">
+        <v>5</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="34">
+        <v>3</v>
+      </c>
+      <c r="G31" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H31" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
+        <v>5</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="34">
+        <v>4</v>
+      </c>
+      <c r="G32" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H32" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="34">
+        <v>5</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="34">
+        <v>5</v>
+      </c>
+      <c r="G33" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H33" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="34">
+        <v>6</v>
+      </c>
+      <c r="G34" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H34" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="34">
+        <v>5</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="34">
+        <v>7</v>
+      </c>
+      <c r="G35" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H35" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="34">
+        <v>6</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="34">
+        <v>1</v>
+      </c>
+      <c r="G36" s="20">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="34">
+        <v>6</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="34">
+        <v>2</v>
+      </c>
+      <c r="G37" s="20">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="34">
+        <v>6</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="34">
+        <v>3</v>
+      </c>
+      <c r="F38" s="34">
+        <v>1</v>
+      </c>
+      <c r="G38" s="20">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="34">
+        <v>6</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="34">
+        <v>4</v>
+      </c>
+      <c r="G39" s="20">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="34">
+        <v>6</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="34">
+        <v>5</v>
+      </c>
+      <c r="G40" s="20">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="34">
+        <v>6</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="34">
+        <v>6</v>
+      </c>
+      <c r="G41" s="20">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="34">
+        <v>6</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="34">
+        <v>7</v>
+      </c>
+      <c r="G42" s="20">
+        <v>45464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="34">
+        <v>7</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="34">
+        <v>1</v>
+      </c>
+      <c r="G43" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H43" s="20">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="34">
+        <v>7</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="34">
+        <v>2</v>
+      </c>
+      <c r="G44" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H44" s="20">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="34">
+        <v>7</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="34">
+        <v>3</v>
+      </c>
+      <c r="G45" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H45" s="20">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="34">
+        <v>7</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="34">
+        <v>4</v>
+      </c>
+      <c r="G46" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H46" s="20">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="34">
+        <v>7</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="34">
+        <v>5</v>
+      </c>
+      <c r="G47" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H47" s="20">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="34">
+        <v>8</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="34">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="34">
+        <v>8</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="34">
+        <v>2</v>
+      </c>
+      <c r="G49" s="20">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="34">
+        <v>8</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="34">
+        <v>3</v>
+      </c>
+      <c r="G50" s="20">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="34">
+        <v>8</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="34">
+        <v>4</v>
+      </c>
+      <c r="G51" s="20">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="34">
+        <v>8</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="34">
+        <v>5</v>
+      </c>
+      <c r="G52" s="20">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="34">
+        <v>9</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="34">
+        <v>1</v>
+      </c>
+      <c r="G53" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H53" s="20">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="34">
+        <v>9</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="34">
+        <v>2</v>
+      </c>
+      <c r="G54" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H54" s="20">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="34">
+        <v>9</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="34">
+        <v>3</v>
+      </c>
+      <c r="G55" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H55" s="20">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="34">
+        <v>9</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="34">
+        <v>4</v>
+      </c>
+      <c r="G56" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H56" s="20">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="34">
+        <v>9</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="34">
+        <v>5</v>
+      </c>
+      <c r="G57" s="20">
+        <v>45452</v>
+      </c>
+      <c r="H57" s="20">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="34">
+        <v>10</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="34">
+        <v>1</v>
+      </c>
+      <c r="G58" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="34">
+        <v>10</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="34">
+        <v>2</v>
+      </c>
+      <c r="G59" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="34">
+        <v>10</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="34">
+        <v>3</v>
+      </c>
+      <c r="G60" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="34">
+        <v>10</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="34">
+        <v>4</v>
+      </c>
+      <c r="G61" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="34">
+        <v>10</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="34">
+        <v>5</v>
+      </c>
+      <c r="G62" s="20">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="34">
+        <v>2</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="34">
+        <v>999</v>
+      </c>
+      <c r="G63" s="20">
+        <v>1</v>
+      </c>
+      <c r="H63" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="34">
+        <v>3</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="34">
+        <v>999</v>
+      </c>
+      <c r="G64" s="20">
+        <v>1</v>
+      </c>
+      <c r="H64" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="34">
+        <v>4</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" s="34">
+        <v>999</v>
+      </c>
+      <c r="G65" s="20">
+        <v>1</v>
+      </c>
+      <c r="H65" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="34">
+        <v>5</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" s="34">
+        <v>999</v>
+      </c>
+      <c r="G66" s="20">
+        <v>1</v>
+      </c>
+      <c r="H66" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="34">
+        <v>6</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="34">
+        <v>999</v>
+      </c>
+      <c r="G67" s="20">
+        <v>1</v>
+      </c>
+      <c r="H67" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="34">
+        <v>7</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="34">
+        <v>999</v>
+      </c>
+      <c r="G68" s="20">
+        <v>1</v>
+      </c>
+      <c r="H68" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="34">
+        <v>8</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="34">
+        <v>999</v>
+      </c>
+      <c r="G69" s="20">
+        <v>1</v>
+      </c>
+      <c r="H69" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="34">
+        <v>9</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="34">
+        <v>999</v>
+      </c>
+      <c r="G70" s="20">
+        <v>1</v>
+      </c>
+      <c r="H70" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="34">
+        <v>10</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" s="34">
+        <v>999</v>
+      </c>
+      <c r="G71" s="20">
+        <v>1</v>
+      </c>
+      <c r="H71" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="34">
+        <v>11</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="34">
+        <v>0</v>
+      </c>
+      <c r="G72" s="20">
+        <v>1</v>
+      </c>
+      <c r="H72" s="20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCAD7A3-9D27-446A-A212-7BAAE8DBBD63}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -5866,16 +7257,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -5907,7 +7298,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5923,7 +7314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8312B6-804B-4206-BA0D-4F14AA8ACAA4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5931,16 +7322,16 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -5957,7 +7348,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5987,14 +7378,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>107</v>
       </c>
@@ -6005,7 +7396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>111</v>
       </c>
@@ -6013,7 +7404,7 @@
         <v>206.92000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>25</v>
       </c>
@@ -6025,7 +7416,7 @@
         <v>0.28000000000000114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>26</v>
       </c>
@@ -6037,7 +7428,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>27</v>
       </c>
@@ -6049,7 +7440,7 @@
         <v>-5.0000000000011369E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>28</v>
       </c>
@@ -6061,7 +7452,7 @@
         <v>-5.0000000000011369E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>29</v>
       </c>
@@ -6073,7 +7464,7 @@
         <v>-0.90000000000000568</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>30</v>
       </c>
@@ -6085,7 +7476,7 @@
         <v>0.36666666666670267</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>31</v>
       </c>
@@ -6097,7 +7488,7 @@
         <v>1.4333333333333087</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>32</v>
       </c>
@@ -6109,7 +7500,7 @@
         <v>-0.56666666666663446</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>33</v>
       </c>
@@ -6121,7 +7512,7 @@
         <v>0.92380952380946724</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>34</v>
       </c>
@@ -6133,7 +7524,7 @@
         <v>0.80952380952382441</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>35</v>
       </c>
@@ -6145,7 +7536,7 @@
         <v>2.2761904761904646</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>36</v>
       </c>
@@ -6157,7 +7548,7 @@
         <v>2.3571428571428896</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>37</v>
       </c>
@@ -6169,7 +7560,7 @@
         <v>0.87142857142856656</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>38</v>
       </c>
@@ -6181,7 +7572,7 @@
         <v>0.37142857142859498</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>39</v>
       </c>
@@ -6193,7 +7584,7 @@
         <v>0.84047619047615285</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>108</v>
       </c>
@@ -6214,12 +7605,12 @@
       <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -6230,7 +7621,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>206.4</v>
       </c>
@@ -6242,7 +7633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>207.4</v>
       </c>
@@ -6254,7 +7645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>206.6</v>
       </c>
@@ -6266,7 +7657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>204.8</v>
       </c>
@@ -6278,7 +7669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>209.4</v>
       </c>
@@ -6290,7 +7681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>208.6</v>
       </c>
@@ -6302,7 +7693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>205.2</v>
       </c>
@@ -6314,7 +7705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>207.2</v>
       </c>
@@ -6326,7 +7717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>207.2</v>
       </c>
@@ -6338,7 +7729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>206.8</v>
       </c>
@@ -6350,7 +7741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>208.2</v>
       </c>
@@ -6362,7 +7753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>209.3</v>
       </c>
@@ -6374,7 +7765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>209</v>
       </c>
@@ -6386,7 +7777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>207.4</v>
       </c>
@@ -6398,7 +7789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>207.6</v>
       </c>
@@ -6410,7 +7801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>209.2</v>
       </c>
@@ -6422,7 +7813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>209.2</v>
       </c>
@@ -6434,7 +7825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>209.2</v>
       </c>
@@ -6446,7 +7837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>209.6</v>
       </c>
@@ -6458,7 +7849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>208.6</v>
       </c>
@@ -6470,7 +7861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>206.8</v>
       </c>
@@ -6482,7 +7873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>209.6</v>
       </c>
@@ -6494,7 +7885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>208.8</v>
       </c>
@@ -6506,7 +7897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>208.8</v>
       </c>
@@ -6518,7 +7909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>208.2</v>
       </c>
@@ -6530,7 +7921,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>206.8</v>
       </c>
@@ -6542,7 +7933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>208.6</v>
       </c>
@@ -6554,7 +7945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>208.2</v>
       </c>
@@ -6566,7 +7957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>207.2</v>
       </c>
@@ -6578,7 +7969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>208.8</v>
       </c>
@@ -6590,7 +7981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>209.6</v>
       </c>
@@ -6602,7 +7993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>208.8</v>
       </c>
@@ -6614,7 +8005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>210</v>
       </c>
@@ -6626,7 +8017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>209.6</v>
       </c>
@@ -6638,7 +8029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>208.2</v>
       </c>
@@ -6650,7 +8041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>206.8</v>
       </c>
@@ -6662,7 +8053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>208.2</v>
       </c>
@@ -6674,7 +8065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>208.2</v>
       </c>
@@ -6686,7 +8077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>210.8</v>
       </c>
@@ -6698,7 +8089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>211.4</v>
       </c>
@@ -6710,7 +8101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>208.8</v>
       </c>
@@ -6722,7 +8113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>212.8</v>
       </c>
@@ -6734,7 +8125,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>209.2</v>
       </c>
@@ -6746,7 +8137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>209.8</v>
       </c>
@@ -6758,7 +8149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>210</v>
       </c>
@@ -6770,7 +8161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>207.6</v>
       </c>
@@ -6782,7 +8173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>210.8</v>
       </c>
@@ -6794,7 +8185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>211.8</v>
       </c>
@@ -6806,7 +8197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>209.8</v>
       </c>
@@ -6818,7 +8209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>210.4</v>
       </c>
@@ -6830,7 +8221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>212.6</v>
       </c>
@@ -6842,7 +8233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>213.2</v>
       </c>
@@ -6854,7 +8245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>212</v>
       </c>
@@ -6866,7 +8257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>213.8</v>
       </c>
@@ -6878,7 +8269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>211.8</v>
       </c>
@@ -6890,7 +8281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>213.8</v>
       </c>
@@ -6902,7 +8293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>213.4</v>
       </c>
@@ -6914,7 +8305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>214.2</v>
       </c>
@@ -6926,7 +8317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>214.8</v>
       </c>
@@ -6938,7 +8329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>212.4</v>
       </c>
@@ -6950,7 +8341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>215.8</v>
       </c>
@@ -6962,7 +8353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>216.2</v>
       </c>
@@ -6974,7 +8365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>216</v>
       </c>
@@ -6986,7 +8377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>216</v>
       </c>
@@ -6998,7 +8389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>217</v>
       </c>
@@ -7010,7 +8401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>214.6</v>
       </c>
@@ -7022,7 +8413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>216</v>
       </c>
@@ -7034,7 +8425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>215.4</v>
       </c>
@@ -7046,7 +8437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>217.6</v>
       </c>
@@ -7058,7 +8449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>218.6</v>
       </c>
@@ -7070,7 +8461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>217</v>
       </c>
@@ -7082,7 +8473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>214</v>
       </c>
@@ -7094,7 +8485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>215</v>
       </c>
@@ -7106,7 +8497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>216</v>
       </c>
@@ -7118,7 +8509,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>217</v>
       </c>
@@ -7130,7 +8521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>216.4</v>
       </c>
@@ -7142,7 +8533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>216</v>
       </c>
@@ -7154,7 +8545,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>217.4</v>
       </c>
@@ -7166,7 +8557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>218</v>
       </c>
@@ -7178,7 +8569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>217</v>
       </c>
@@ -7190,7 +8581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>219.4</v>
       </c>
@@ -7202,7 +8593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>217</v>
       </c>
@@ -7214,7 +8605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>215.4</v>
       </c>
@@ -7226,7 +8617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>218</v>
       </c>
@@ -7238,7 +8629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>217.5</v>
       </c>
@@ -7250,7 +8641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>217.5</v>
       </c>
@@ -7262,7 +8653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>216.2</v>
       </c>
@@ -7274,7 +8665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>217</v>
       </c>
@@ -7286,7 +8677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>217.6</v>
       </c>
@@ -7298,7 +8689,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>219</v>
       </c>
@@ -7310,7 +8701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>217.4</v>
       </c>
@@ -7322,7 +8713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>215.6</v>
       </c>
@@ -7334,7 +8725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>219</v>
       </c>
@@ -7346,7 +8737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>220</v>
       </c>
@@ -7358,7 +8749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>219</v>
       </c>
@@ -7370,7 +8761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>218</v>
       </c>
@@ -7382,7 +8773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>220</v>
       </c>
@@ -7394,7 +8785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>220</v>
       </c>
@@ -7406,7 +8797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>220</v>
       </c>
@@ -7418,7 +8809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>219</v>
       </c>
@@ -7430,7 +8821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>216.8</v>
       </c>
@@ -7455,21 +8846,21 @@
       <selection activeCell="P3" sqref="P3:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="28" max="28" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -7552,7 +8943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
@@ -7594,7 +8985,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
@@ -7630,7 +9021,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -7666,7 +9057,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
@@ -7702,7 +9093,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
@@ -7738,7 +9129,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>90</v>
       </c>
@@ -7774,13 +9165,13 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="M8" s="8"/>
       <c r="AB8" s="8">
         <v>45547</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="U9" s="8">
         <v>45547</v>
       </c>
@@ -7798,12 +9189,12 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
@@ -7847,7 +9238,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -7860,7 +9251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -7872,7 +9263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -7884,7 +9275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -7896,7 +9287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -7908,10 +9299,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -7937,7 +9328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -7954,7 +9345,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -7980,7 +9371,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -8006,7 +9397,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -8032,7 +9423,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -8058,10 +9449,10 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L24" s="8"/>
     </row>
   </sheetData>
@@ -8078,13 +9469,13 @@
       <selection activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
@@ -8128,7 +9519,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -8140,7 +9531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -8152,7 +9543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -8164,7 +9555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -8176,7 +9567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>79</v>
       </c>
@@ -8188,7 +9579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>102</v>
       </c>
@@ -8200,7 +9591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>78</v>
       </c>
@@ -8212,7 +9603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -8250,7 +9641,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -8282,7 +9673,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -8308,7 +9699,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -8334,7 +9725,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
@@ -8360,7 +9751,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -8386,7 +9777,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>77</v>
       </c>
@@ -8412,7 +9803,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>78</v>
       </c>
@@ -8451,12 +9842,12 @@
       <selection activeCell="O2" sqref="O2:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
@@ -8500,7 +9891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -8512,7 +9903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -8524,7 +9915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -8536,7 +9927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -8548,7 +9939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -8560,7 +9951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -8572,14 +9963,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -8617,7 +10008,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -8643,7 +10034,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -8669,7 +10060,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -8680,7 +10071,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -8691,7 +10082,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -8708,7 +10099,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -8734,7 +10125,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>105</v>
       </c>
@@ -8752,13 +10143,13 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -8838,7 +10229,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -8859,7 +10250,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -8880,7 +10271,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -8907,7 +10298,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -8932,7 +10323,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -8953,7 +10344,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -8989,7 +10380,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -9025,7 +10416,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q9" t="s">
         <v>174</v>
       </c>
@@ -9051,7 +10442,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D10" s="11"/>
       <c r="Q10" t="s">
         <v>175</v>
@@ -9078,23 +10469,23 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="12"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="F25" s="8"/>
     </row>
@@ -9112,22 +10503,22 @@
       <selection activeCell="O400" sqref="O400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>160</v>
       </c>
@@ -9183,7 +10574,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9233,7 +10624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9279,7 +10670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9325,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9371,7 +10762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -9417,7 +10808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -9463,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9509,7 +10900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9555,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -9601,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9647,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -9689,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -9729,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -9779,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9827,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -9875,7 +11266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -9921,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -9971,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -10017,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -10063,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -10109,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -10151,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -10197,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -10237,7 +11628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -10283,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -10329,7 +11720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -10375,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -10421,7 +11812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -10471,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -10517,7 +11908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -10563,7 +11954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -10611,7 +12002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -10659,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -10705,7 +12096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -10751,7 +12142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -10797,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -10843,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -10883,7 +12274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -10933,7 +12324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -10979,7 +12370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -11027,7 +12418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -11073,7 +12464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -11119,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -11165,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -11211,7 +12602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -11261,7 +12652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -11307,7 +12698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -11353,7 +12744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -11399,7 +12790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -11445,7 +12836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -11491,7 +12882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -11531,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -11577,7 +12968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -11623,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -11669,7 +13060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -11715,7 +13106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -11765,7 +13156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -11813,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -11859,7 +13250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -11895,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -11943,7 +13334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -11991,7 +13382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -12037,7 +13428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -12083,7 +13474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -12129,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -12175,7 +13566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -12221,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -12263,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -12313,7 +13704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -12359,7 +13750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -12407,7 +13798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -12453,7 +13844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -12487,7 +13878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -12533,7 +13924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -12567,7 +13958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -12617,7 +14008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -12663,7 +14054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -12709,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -12745,7 +14136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -12791,7 +14182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -12827,7 +14218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -12867,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -12913,7 +14304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -12959,7 +14350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -13005,7 +14396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -13051,7 +14442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -13101,7 +14492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3</v>
       </c>
@@ -13147,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -13189,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
@@ -13225,7 +14616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3</v>
       </c>
@@ -13273,7 +14664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3</v>
       </c>
@@ -13321,7 +14712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3</v>
       </c>
@@ -13367,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -13413,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3</v>
       </c>
@@ -13459,7 +14850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3</v>
       </c>
@@ -13505,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3</v>
       </c>
@@ -13551,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3</v>
       </c>
@@ -13591,7 +14982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3</v>
       </c>
@@ -13641,7 +15032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
@@ -13687,7 +15078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3</v>
       </c>
@@ -13733,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3</v>
       </c>
@@ -13779,7 +15170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3</v>
       </c>
@@ -13825,7 +15216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3</v>
       </c>
@@ -13871,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3</v>
       </c>
@@ -13911,7 +15302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -13957,7 +15348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3</v>
       </c>
@@ -14003,7 +15394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3</v>
       </c>
@@ -14039,7 +15430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3</v>
       </c>
@@ -14085,7 +15476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3</v>
       </c>
@@ -14127,7 +15518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
@@ -14173,7 +15564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3</v>
       </c>
@@ -14219,7 +15610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3</v>
       </c>
@@ -14265,7 +15656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3</v>
       </c>
@@ -14301,7 +15692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3</v>
       </c>
@@ -14337,7 +15728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3</v>
       </c>
@@ -14373,7 +15764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3</v>
       </c>
@@ -14419,7 +15810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
@@ -14465,7 +15856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3</v>
       </c>
@@ -14511,7 +15902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3</v>
       </c>
@@ -14557,7 +15948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3</v>
       </c>
@@ -14593,7 +15984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4</v>
       </c>
@@ -14639,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4</v>
       </c>
@@ -14685,7 +16076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4</v>
       </c>
@@ -14731,7 +16122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -14777,7 +16168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4</v>
       </c>
@@ -14813,7 +16204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4</v>
       </c>
@@ -14849,7 +16240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4</v>
       </c>
@@ -14889,7 +16280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4</v>
       </c>
@@ -14935,7 +16326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4</v>
       </c>
@@ -14981,7 +16372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4</v>
       </c>
@@ -15027,7 +16418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4</v>
       </c>
@@ -15073,7 +16464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4</v>
       </c>
@@ -15123,7 +16514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4</v>
       </c>
@@ -15169,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4</v>
       </c>
@@ -15205,7 +16596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4</v>
       </c>
@@ -15241,7 +16632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4</v>
       </c>
@@ -15283,7 +16674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4</v>
       </c>
@@ -15325,7 +16716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4</v>
       </c>
@@ -15371,7 +16762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4</v>
       </c>
@@ -15417,7 +16808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4</v>
       </c>
@@ -15463,7 +16854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4</v>
       </c>
@@ -15509,7 +16900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4</v>
       </c>
@@ -15555,7 +16946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4</v>
       </c>
@@ -15591,7 +16982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4</v>
       </c>
@@ -15641,7 +17032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4</v>
       </c>
@@ -15687,7 +17078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4</v>
       </c>
@@ -15733,7 +17124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4</v>
       </c>
@@ -15779,7 +17170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4</v>
       </c>
@@ -15815,7 +17206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4</v>
       </c>
@@ -15859,7 +17250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4</v>
       </c>
@@ -15895,7 +17286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4</v>
       </c>
@@ -15945,7 +17336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4</v>
       </c>
@@ -15991,7 +17382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4</v>
       </c>
@@ -16037,7 +17428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4</v>
       </c>
@@ -16083,7 +17474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4</v>
       </c>
@@ -16129,7 +17520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4</v>
       </c>
@@ -16175,7 +17566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4</v>
       </c>
@@ -16215,7 +17606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4</v>
       </c>
@@ -16251,7 +17642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4</v>
       </c>
@@ -16297,7 +17688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4</v>
       </c>
@@ -16343,7 +17734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4</v>
       </c>
@@ -16389,7 +17780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>5</v>
       </c>
@@ -16439,7 +17830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>5</v>
       </c>
@@ -16485,7 +17876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>5</v>
       </c>
@@ -16521,7 +17912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>5</v>
       </c>
@@ -16557,7 +17948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>5</v>
       </c>
@@ -16605,7 +17996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5</v>
       </c>
@@ -16653,7 +18044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>5</v>
       </c>
@@ -16699,7 +18090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5</v>
       </c>
@@ -16749,7 +18140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>5</v>
       </c>
@@ -16795,7 +18186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>5</v>
       </c>
@@ -16843,7 +18234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>5</v>
       </c>
@@ -16889,7 +18280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>5</v>
       </c>
@@ -16935,7 +18326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>5</v>
       </c>
@@ -16981,7 +18372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>5</v>
       </c>
@@ -17023,7 +18414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>5</v>
       </c>
@@ -17073,7 +18464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>5</v>
       </c>
@@ -17119,7 +18510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>5</v>
       </c>
@@ -17165,7 +18556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>5</v>
       </c>
@@ -17211,7 +18602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>5</v>
       </c>
@@ -17247,7 +18638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>5</v>
       </c>
@@ -17283,7 +18674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>5</v>
       </c>
@@ -17323,7 +18714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>5</v>
       </c>
@@ -17369,7 +18760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>5</v>
       </c>
@@ -17415,7 +18806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>5</v>
       </c>
@@ -17461,7 +18852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>5</v>
       </c>
@@ -17507,7 +18898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>5</v>
       </c>
@@ -17553,7 +18944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>5</v>
       </c>
@@ -17599,7 +18990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5</v>
       </c>
@@ -17645,7 +19036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5</v>
       </c>
@@ -17691,7 +19082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>5</v>
       </c>
@@ -17739,7 +19130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>5</v>
       </c>
@@ -17787,7 +19178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>5</v>
       </c>
@@ -17833,7 +19224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>5</v>
       </c>
@@ -17883,7 +19274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>5</v>
       </c>
@@ -17929,7 +19320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>5</v>
       </c>
@@ -17975,7 +19366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>5</v>
       </c>
@@ -18011,7 +19402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>5</v>
       </c>
@@ -18057,7 +19448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>5</v>
       </c>
@@ -18103,7 +19494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>5</v>
       </c>
@@ -18143,7 +19534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>5</v>
       </c>
@@ -18189,7 +19580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>5</v>
       </c>
@@ -18235,7 +19626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>5</v>
       </c>
@@ -18271,7 +19662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>5</v>
       </c>
@@ -18317,7 +19708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>5</v>
       </c>
@@ -18367,7 +19758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>5</v>
       </c>
@@ -18413,7 +19804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>5</v>
       </c>
@@ -18459,7 +19850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>5</v>
       </c>
@@ -18505,7 +19896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>5</v>
       </c>
@@ -18553,7 +19944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>5</v>
       </c>
@@ -18601,7 +19992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>5</v>
       </c>
@@ -18647,7 +20038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>5</v>
       </c>
@@ -18693,7 +20084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>5</v>
       </c>
@@ -18739,7 +20130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>5</v>
       </c>
@@ -18785,7 +20176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>5</v>
       </c>
@@ -18831,7 +20222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>5</v>
       </c>
@@ -18867,7 +20258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>5</v>
       </c>
@@ -18917,7 +20308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>5</v>
       </c>
@@ -18963,7 +20354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>5</v>
       </c>
@@ -19009,7 +20400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>5</v>
       </c>
@@ -19055,7 +20446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>5</v>
       </c>
@@ -19101,7 +20492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>5</v>
       </c>
@@ -19147,7 +20538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>5</v>
       </c>
@@ -19187,7 +20578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>5</v>
       </c>
@@ -19233,7 +20624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>5</v>
       </c>
@@ -19279,7 +20670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>5</v>
       </c>
@@ -19325,7 +20716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>5</v>
       </c>
@@ -19361,7 +20752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>6</v>
       </c>
@@ -19411,7 +20802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>6</v>
       </c>
@@ -19457,7 +20848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>6</v>
       </c>
@@ -19503,7 +20894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>6</v>
       </c>
@@ -19549,7 +20940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>6</v>
       </c>
@@ -19597,7 +20988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>6</v>
       </c>
@@ -19645,7 +21036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>6</v>
       </c>
@@ -19691,7 +21082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>6</v>
       </c>
@@ -19737,7 +21128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>6</v>
       </c>
@@ -19783,7 +21174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>6</v>
       </c>
@@ -19829,7 +21220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>6</v>
       </c>
@@ -19875,7 +21266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>6</v>
       </c>
@@ -19911,7 +21302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>6</v>
       </c>
@@ -19961,7 +21352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>6</v>
       </c>
@@ -20007,7 +21398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>6</v>
       </c>
@@ -20055,7 +21446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>6</v>
       </c>
@@ -20101,7 +21492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>6</v>
       </c>
@@ -20137,7 +21528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>6</v>
       </c>
@@ -20183,7 +21574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>6</v>
       </c>
@@ -20219,7 +21610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>6</v>
       </c>
@@ -20271,7 +21662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>6</v>
       </c>
@@ -20317,7 +21708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>6</v>
       </c>
@@ -20363,7 +21754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>6</v>
       </c>
@@ -20409,7 +21800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>6</v>
       </c>
@@ -20455,7 +21846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>6</v>
       </c>
@@ -20501,7 +21892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>6</v>
       </c>
@@ -20541,7 +21932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>6</v>
       </c>
@@ -20587,7 +21978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>6</v>
       </c>
@@ -20633,7 +22024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>6</v>
       </c>
@@ -20679,7 +22070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>6</v>
       </c>
@@ -20715,7 +22106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>6</v>
       </c>
@@ -20765,7 +22156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>6</v>
       </c>
@@ -20811,7 +22202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>6</v>
       </c>
@@ -20857,7 +22248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>6</v>
       </c>
@@ -20903,7 +22294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>6</v>
       </c>
@@ -20951,7 +22342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>6</v>
       </c>
@@ -20999,7 +22390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>6</v>
       </c>
@@ -21045,7 +22436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>6</v>
       </c>
@@ -21091,7 +22482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>6</v>
       </c>
@@ -21137,7 +22528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>6</v>
       </c>
@@ -21183,7 +22574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>6</v>
       </c>
@@ -21229,7 +22620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>6</v>
       </c>
@@ -21265,7 +22656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>6</v>
       </c>
@@ -21315,7 +22706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6</v>
       </c>
@@ -21361,7 +22752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>6</v>
       </c>
@@ -21409,7 +22800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>6</v>
       </c>
@@ -21455,7 +22846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>6</v>
       </c>
@@ -21491,7 +22882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>6</v>
       </c>
@@ -21537,7 +22928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>6</v>
       </c>
@@ -21573,7 +22964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>6</v>
       </c>
@@ -21609,7 +23000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>6</v>
       </c>
@@ -21657,7 +23048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>6</v>
       </c>
@@ -21703,7 +23094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>6</v>
       </c>
@@ -21749,7 +23140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>6</v>
       </c>
@@ -21795,7 +23186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>6</v>
       </c>
@@ -21833,7 +23224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>6</v>
       </c>
@@ -21881,7 +23272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>6</v>
       </c>
@@ -21921,7 +23312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>6</v>
       </c>
@@ -21967,7 +23358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>6</v>
       </c>
@@ -22013,7 +23404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>6</v>
       </c>
@@ -22059,7 +23450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>6</v>
       </c>
@@ -22105,7 +23496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>6</v>
       </c>
@@ -22155,7 +23546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>6</v>
       </c>
@@ -22201,7 +23592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>6</v>
       </c>
@@ -22247,7 +23638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>6</v>
       </c>
@@ -22293,7 +23684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>6</v>
       </c>
@@ -22341,7 +23732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>6</v>
       </c>
@@ -22389,7 +23780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>6</v>
       </c>
@@ -22435,7 +23826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>6</v>
       </c>
@@ -22481,7 +23872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>6</v>
       </c>
@@ -22527,7 +23918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>6</v>
       </c>
@@ -22573,7 +23964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>6</v>
       </c>
@@ -22609,7 +24000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>6</v>
       </c>
@@ -22649,7 +24040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>6</v>
       </c>
@@ -22697,7 +24088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>6</v>
       </c>
@@ -22747,7 +24138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>6</v>
       </c>
@@ -22793,7 +24184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>6</v>
       </c>
@@ -22841,7 +24232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>6</v>
       </c>
@@ -22887,7 +24278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>6</v>
       </c>
@@ -22933,7 +24324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>6</v>
       </c>
@@ -22979,7 +24370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>6</v>
       </c>
@@ -23025,7 +24416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>6</v>
       </c>
@@ -23075,7 +24466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>6</v>
       </c>
@@ -23121,7 +24512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>6</v>
       </c>
@@ -23167,7 +24558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>6</v>
       </c>
@@ -23213,7 +24604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>6</v>
       </c>
@@ -23259,7 +24650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>6</v>
       </c>
@@ -23305,7 +24696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>6</v>
       </c>
@@ -23345,7 +24736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>6</v>
       </c>
@@ -23391,7 +24782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>6</v>
       </c>
@@ -23437,7 +24828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>6</v>
       </c>
@@ -23483,7 +24874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>6</v>
       </c>
@@ -23529,7 +24920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>6</v>
       </c>
@@ -23579,7 +24970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>6</v>
       </c>
@@ -23625,7 +25016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>6</v>
       </c>
@@ -23661,7 +25052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>6</v>
       </c>
@@ -23697,7 +25088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>6</v>
       </c>
@@ -23745,7 +25136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>6</v>
       </c>
@@ -23793,7 +25184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>6</v>
       </c>
@@ -23839,7 +25230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>6</v>
       </c>
@@ -23885,7 +25276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>6</v>
       </c>
@@ -23931,7 +25322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>6</v>
       </c>
@@ -23977,7 +25368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>6</v>
       </c>
@@ -24023,7 +25414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>6</v>
       </c>
@@ -24063,7 +25454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>6</v>
       </c>
@@ -24113,7 +25504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>6</v>
       </c>
@@ -24159,7 +25550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>6</v>
       </c>
@@ -24207,7 +25598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>6</v>
       </c>
@@ -24253,7 +25644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>6</v>
       </c>
@@ -24299,7 +25690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>6</v>
       </c>
@@ -24335,7 +25726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>6</v>
       </c>
@@ -24381,7 +25772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>6</v>
       </c>
@@ -24429,7 +25820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>6</v>
       </c>
@@ -24465,7 +25856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>6</v>
       </c>
@@ -24511,7 +25902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>6</v>
       </c>
@@ -24557,7 +25948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>6</v>
       </c>
@@ -24603,7 +25994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>6</v>
       </c>
@@ -24649,7 +26040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>6</v>
       </c>
@@ -24695,7 +26086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>6</v>
       </c>
@@ -24743,7 +26134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>6</v>
       </c>
@@ -24783,7 +26174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>6</v>
       </c>
@@ -24819,7 +26210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>6</v>
       </c>
@@ -24865,7 +26256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>6</v>
       </c>
@@ -24901,7 +26292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>6</v>
       </c>
@@ -24947,7 +26338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>6</v>
       </c>
@@ -24997,7 +26388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>6</v>
       </c>
@@ -25043,7 +26434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>6</v>
       </c>
@@ -25089,7 +26480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>6</v>
       </c>
@@ -25135,7 +26526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>6</v>
       </c>
@@ -25183,7 +26574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>6</v>
       </c>
@@ -25231,7 +26622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>6</v>
       </c>
@@ -25277,7 +26668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>6</v>
       </c>
@@ -25327,7 +26718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>6</v>
       </c>
@@ -25373,7 +26764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>6</v>
       </c>
@@ -25419,7 +26810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>6</v>
       </c>
@@ -25465,7 +26856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>6</v>
       </c>
@@ -25505,7 +26896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>6</v>
       </c>
@@ -25555,7 +26946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>6</v>
       </c>
@@ -25601,7 +26992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>6</v>
       </c>
@@ -25637,7 +27028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>6</v>
       </c>
@@ -25673,7 +27064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>6</v>
       </c>
@@ -25709,7 +27100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>6</v>
       </c>
@@ -25745,7 +27136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>6</v>
       </c>
@@ -25781,7 +27172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>6</v>
       </c>
@@ -25831,7 +27222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>6</v>
       </c>
@@ -25877,7 +27268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>6</v>
       </c>
@@ -25923,7 +27314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>6</v>
       </c>
@@ -25969,7 +27360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>6</v>
       </c>
@@ -26015,7 +27406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>6</v>
       </c>
@@ -26061,7 +27452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>6</v>
       </c>
@@ -26101,7 +27492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>6</v>
       </c>
@@ -26147,7 +27538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>6</v>
       </c>
@@ -26193,7 +27584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>6</v>
       </c>
@@ -26239,7 +27630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>6</v>
       </c>
@@ -26285,7 +27676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>6</v>
       </c>
@@ -26335,7 +27726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>6</v>
       </c>
@@ -26381,7 +27772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>6</v>
       </c>
@@ -26427,7 +27818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>6</v>
       </c>
@@ -26473,7 +27864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>6</v>
       </c>
@@ -26519,7 +27910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>6</v>
       </c>
@@ -26565,7 +27956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>6</v>
       </c>
@@ -26611,7 +28002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>6</v>
       </c>
@@ -26657,7 +28048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>6</v>
       </c>
@@ -26703,7 +28094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>6</v>
       </c>
@@ -26739,7 +28130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>6</v>
       </c>
@@ -26775,7 +28166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>6</v>
       </c>
@@ -26815,7 +28206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>6</v>
       </c>
@@ -26863,7 +28254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>6</v>
       </c>
@@ -26899,7 +28290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>6</v>
       </c>
@@ -26935,7 +28326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>6</v>
       </c>
@@ -26971,7 +28362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>6</v>
       </c>
@@ -27007,7 +28398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>6</v>
       </c>
@@ -27043,7 +28434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>6</v>
       </c>
@@ -27089,7 +28480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>6</v>
       </c>
@@ -27135,7 +28526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>6</v>
       </c>
@@ -27183,7 +28574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>6</v>
       </c>

--- a/data/liftingexceldoc.xlsx
+++ b/data/liftingexceldoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackboyd/Desktop/personal lifting project/Lifting-Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boydk\Desktop\Personal Lifting Project\py-project-directory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3033907A-B1C8-824B-AFD8-A3393965BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A809F0-EB41-47CF-83F6-60FE9565F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" firstSheet="8" activeTab="11" xr2:uid="{8B3EE465-2883-4BE7-9439-FC93EB33E87B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="9" xr2:uid="{8B3EE465-2883-4BE7-9439-FC93EB33E87B}"/>
   </bookViews>
   <sheets>
     <sheet name="Macrocycle" sheetId="3" r:id="rId1"/>
@@ -864,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,7 +941,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1857,20 +1856,20 @@
       <selection activeCell="E20" sqref="E20:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="3"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>26</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="33"/>
@@ -1958,7 +1957,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="33"/>
@@ -1984,7 +1983,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="33"/>
@@ -2010,7 +2009,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="33"/>
@@ -2036,7 +2035,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="33"/>
@@ -2062,7 +2061,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="33" t="s">
@@ -2099,7 +2098,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="33"/>
@@ -2125,7 +2124,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="33"/>
@@ -2151,7 +2150,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="33"/>
@@ -2186,7 +2185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="33"/>
@@ -2212,7 +2211,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="33"/>
@@ -2238,7 +2237,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="33" t="s">
@@ -2287,7 +2286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="33"/>
@@ -2322,7 +2321,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="33"/>
@@ -2342,7 +2341,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="33"/>
@@ -2386,7 +2385,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="33"/>
@@ -2421,7 +2420,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="51" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
@@ -2441,7 +2440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="30" t="s">
         <v>1</v>
@@ -2459,7 +2458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="33"/>
@@ -2473,7 +2472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="33"/>
@@ -2487,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="33"/>
@@ -2501,7 +2500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="33"/>
@@ -2515,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="33"/>
@@ -2529,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="33" t="s">
@@ -2545,7 +2544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="33"/>
@@ -2559,7 +2558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="33"/>
@@ -2573,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="33"/>
@@ -2587,7 +2586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="33"/>
@@ -2601,7 +2600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="33"/>
@@ -2615,7 +2614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="33" t="s">
@@ -2631,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="50" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="33"/>
@@ -2645,7 +2644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="50" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="33"/>
@@ -2659,7 +2658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="50" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="33"/>
@@ -2673,7 +2672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="33"/>
@@ -2687,7 +2686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="50" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="33"/>
@@ -2701,115 +2700,115 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D65"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D66"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D67"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D68"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D69"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D70"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D71"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D72"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D73"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74"/>
     </row>
@@ -2841,20 +2840,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F81FDCF-BDF5-4709-B81D-7793554E6848}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2911,6 +2910,12 @@
       <c r="G2">
         <v>9</v>
       </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
       <c r="J2" s="20">
         <v>45452</v>
       </c>
@@ -2918,7 +2923,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2940,6 +2945,12 @@
       <c r="G3">
         <v>9</v>
       </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
       <c r="J3" s="20">
         <v>45463</v>
       </c>
@@ -2947,7 +2958,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2969,6 +2980,12 @@
       <c r="G4">
         <v>10</v>
       </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
       <c r="J4" s="20">
         <v>45464</v>
       </c>
@@ -2976,7 +2993,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2998,6 +3015,12 @@
       <c r="G5">
         <v>10</v>
       </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
       <c r="J5" s="20">
         <v>45488</v>
       </c>
@@ -3005,7 +3028,7 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3027,6 +3050,12 @@
       <c r="G6">
         <v>10</v>
       </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
       <c r="J6" s="20">
         <v>45498</v>
       </c>
@@ -3034,7 +3063,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3056,14 +3085,20 @@
       <c r="G7">
         <v>10</v>
       </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
       <c r="J7" s="20">
         <v>45520</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="18"/>
     </row>
   </sheetData>
@@ -3079,31 +3114,31 @@
       <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" customWidth="1"/>
-    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3135,7 +3170,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3167,7 +3202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3199,7 +3234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3231,7 +3266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -3263,7 +3298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3295,7 +3330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3315,7 +3350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>97</v>
       </c>
@@ -3329,7 +3364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -3394,7 +3429,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -3426,7 +3461,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -3455,7 +3490,7 @@
         <v>45495</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -3484,7 +3519,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -3510,7 +3545,7 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>5</v>
       </c>
@@ -3554,7 +3589,7 @@
         <v>45512</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>6</v>
       </c>
@@ -3595,7 +3630,7 @@
         <v>45520</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7</v>
       </c>
@@ -3624,7 +3659,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8</v>
       </c>
@@ -3650,7 +3685,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>9</v>
       </c>
@@ -3685,7 +3720,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>10</v>
       </c>
@@ -3723,7 +3758,7 @@
         <v>45464</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -3761,7 +3796,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3794,7 +3829,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3827,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3860,7 +3895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3893,7 +3928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3926,7 +3961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -3959,7 +3994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -3992,7 +4027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -4022,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -4052,7 +4087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -4082,7 +4117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -4112,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -4142,7 +4177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -4172,7 +4207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -4202,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -4235,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15</v>
       </c>
@@ -4268,7 +4303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -4301,7 +4336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
@@ -4337,7 +4372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -4373,7 +4408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19</v>
       </c>
@@ -4406,7 +4441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -4436,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>21</v>
       </c>
@@ -4466,7 +4501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
@@ -4496,7 +4531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23</v>
       </c>
@@ -4526,7 +4561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>24</v>
       </c>
@@ -4556,7 +4591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>25</v>
       </c>
@@ -4586,7 +4621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>26</v>
       </c>
@@ -4616,7 +4651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>5</v>
       </c>
@@ -4646,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>5</v>
       </c>
@@ -4676,7 +4711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>5</v>
       </c>
@@ -4706,7 +4741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>5</v>
       </c>
@@ -4736,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>5</v>
       </c>
@@ -4766,7 +4801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>5</v>
       </c>
@@ -4796,7 +4831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>5</v>
       </c>
@@ -4826,7 +4861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>6</v>
       </c>
@@ -4853,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>6</v>
       </c>
@@ -4880,7 +4915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>6</v>
       </c>
@@ -4910,7 +4945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>6</v>
       </c>
@@ -4937,7 +4972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>6</v>
       </c>
@@ -4964,7 +4999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>6</v>
       </c>
@@ -4991,7 +5026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>6</v>
       </c>
@@ -5018,7 +5053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>7</v>
       </c>
@@ -5048,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>7</v>
       </c>
@@ -5078,7 +5113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>7</v>
       </c>
@@ -5108,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>7</v>
       </c>
@@ -5138,7 +5173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>7</v>
       </c>
@@ -5168,7 +5203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>8</v>
       </c>
@@ -5195,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>8</v>
       </c>
@@ -5222,7 +5257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>8</v>
       </c>
@@ -5249,7 +5284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>8</v>
       </c>
@@ -5276,7 +5311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>8</v>
       </c>
@@ -5303,7 +5338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>9</v>
       </c>
@@ -5333,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>9</v>
       </c>
@@ -5363,7 +5398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>9</v>
       </c>
@@ -5393,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>9</v>
       </c>
@@ -5423,7 +5458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>9</v>
       </c>
@@ -5453,7 +5488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>10</v>
       </c>
@@ -5480,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>10</v>
       </c>
@@ -5507,7 +5542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>10</v>
       </c>
@@ -5534,7 +5569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>10</v>
       </c>
@@ -5561,7 +5596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>10</v>
       </c>
@@ -5588,7 +5623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>2</v>
       </c>
@@ -5618,7 +5653,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>3</v>
       </c>
@@ -5648,7 +5683,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>4</v>
       </c>
@@ -5678,7 +5713,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>5</v>
       </c>
@@ -5708,7 +5743,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>6</v>
       </c>
@@ -5738,7 +5773,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7</v>
       </c>
@@ -5768,7 +5803,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>8</v>
       </c>
@@ -5798,7 +5833,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>9</v>
       </c>
@@ -5828,7 +5863,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>10</v>
       </c>
@@ -5867,38 +5902,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E5DE48-71B5-1A49-B14D-63C2E2D548D4}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="34"/>
-    <col min="5" max="5" width="16.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="34"/>
-    <col min="7" max="8" width="10.83203125" style="20"/>
-    <col min="9" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" t="s">
         <v>149</v>
       </c>
       <c r="G1" s="20" t="s">
@@ -5908,17 +5940,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2">
         <v>999</v>
       </c>
       <c r="G2" s="20">
@@ -5928,17 +5960,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" s="20">
@@ -5948,17 +5980,17 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
-        <v>1</v>
-      </c>
-      <c r="B4" s="34" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4">
         <v>2</v>
       </c>
       <c r="G4" s="20">
@@ -5968,17 +6000,17 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
-        <v>1</v>
-      </c>
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5">
         <v>3</v>
       </c>
       <c r="G5" s="20">
@@ -5988,17 +6020,17 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
-        <v>1</v>
-      </c>
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6">
         <v>4</v>
       </c>
       <c r="G6" s="20">
@@ -6008,17 +6040,17 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
-        <v>1</v>
-      </c>
-      <c r="B7" s="34" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7">
         <v>5</v>
       </c>
       <c r="G7" s="20">
@@ -6028,17 +6060,17 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
-        <v>1</v>
-      </c>
-      <c r="B8" s="34" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8">
         <v>6</v>
       </c>
       <c r="G8" s="20">
@@ -6048,136 +6080,136 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="34">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="G9" s="20">
         <v>45495</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10">
         <v>2</v>
       </c>
       <c r="G10" s="20">
         <v>45495</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11">
         <v>3</v>
       </c>
       <c r="G11" s="20">
         <v>45495</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12">
         <v>4</v>
       </c>
       <c r="G12" s="20">
         <v>45495</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13">
         <v>5</v>
       </c>
       <c r="G13" s="20">
         <v>45495</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14">
         <v>6</v>
       </c>
       <c r="G14" s="20">
         <v>45495</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" s="20">
         <v>45452</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16">
         <v>2</v>
       </c>
       <c r="G16" s="20">
@@ -6187,17 +6219,17 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17">
         <v>3</v>
       </c>
       <c r="G17" s="20">
@@ -6207,17 +6239,17 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18">
         <v>4</v>
       </c>
       <c r="G18" s="20">
@@ -6227,20 +6259,20 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="20">
@@ -6250,20 +6282,20 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="34">
-        <v>6</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" s="20">
@@ -6273,17 +6305,17 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21">
         <v>7</v>
       </c>
       <c r="G21" s="20">
@@ -6293,136 +6325,136 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="34">
-        <v>4</v>
-      </c>
-      <c r="B22" s="34" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22">
         <v>1</v>
       </c>
       <c r="G22" s="20">
         <v>45520</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
-        <v>4</v>
-      </c>
-      <c r="B23" s="34" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" s="20">
         <v>45520</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="34">
-        <v>4</v>
-      </c>
-      <c r="B24" s="34" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24">
         <v>3</v>
       </c>
       <c r="G24" s="20">
         <v>45520</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
-        <v>4</v>
-      </c>
-      <c r="B25" s="34" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25">
         <v>4</v>
       </c>
       <c r="G25" s="20">
         <v>45520</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
-        <v>4</v>
-      </c>
-      <c r="B26" s="34" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26">
         <v>5</v>
       </c>
       <c r="G26" s="20">
         <v>45520</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="34">
-        <v>4</v>
-      </c>
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27">
         <v>6</v>
       </c>
       <c r="G27" s="20">
         <v>45520</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="34">
-        <v>4</v>
-      </c>
-      <c r="B28" s="34" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28">
         <v>7</v>
       </c>
       <c r="G28" s="20">
         <v>45520</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29">
         <v>1</v>
       </c>
       <c r="G29" s="20">
@@ -6432,17 +6464,17 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30">
         <v>2</v>
       </c>
       <c r="G30" s="20">
@@ -6452,17 +6484,17 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31">
         <v>3</v>
       </c>
       <c r="G31" s="20">
@@ -6472,17 +6504,17 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32">
         <v>4</v>
       </c>
       <c r="G32" s="20">
@@ -6492,17 +6524,17 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="34">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33">
         <v>5</v>
       </c>
       <c r="G33" s="20">
@@ -6512,17 +6544,17 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>5</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34">
         <v>6</v>
       </c>
       <c r="G34" s="20">
@@ -6532,17 +6564,17 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="34">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>5</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35">
         <v>7</v>
       </c>
       <c r="G35" s="20">
@@ -6552,139 +6584,139 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="34">
-        <v>6</v>
-      </c>
-      <c r="B36" s="34" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36">
         <v>1</v>
       </c>
       <c r="G36" s="20">
         <v>45464</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="34">
-        <v>6</v>
-      </c>
-      <c r="B37" s="34" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37">
         <v>2</v>
       </c>
       <c r="G37" s="20">
         <v>45464</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="34">
-        <v>6</v>
-      </c>
-      <c r="B38" s="34" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="20">
         <v>45464</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
-        <v>6</v>
-      </c>
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39">
         <v>4</v>
       </c>
       <c r="G39" s="20">
         <v>45464</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="34">
-        <v>6</v>
-      </c>
-      <c r="B40" s="34" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40">
         <v>5</v>
       </c>
       <c r="G40" s="20">
         <v>45464</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
-        <v>6</v>
-      </c>
-      <c r="B41" s="34" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41">
         <v>6</v>
       </c>
       <c r="G41" s="20">
         <v>45464</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="34">
-        <v>6</v>
-      </c>
-      <c r="B42" s="34" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42">
         <v>7</v>
       </c>
       <c r="G42" s="20">
         <v>45464</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="34">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>7</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43">
         <v>1</v>
       </c>
       <c r="G43" s="20">
@@ -6694,17 +6726,17 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="34">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>7</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44">
         <v>2</v>
       </c>
       <c r="G44" s="20">
@@ -6714,17 +6746,17 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>7</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45">
         <v>3</v>
       </c>
       <c r="G45" s="20">
@@ -6734,17 +6766,17 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>7</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46">
         <v>4</v>
       </c>
       <c r="G46" s="20">
@@ -6754,17 +6786,17 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="34">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>7</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47">
         <v>5</v>
       </c>
       <c r="G47" s="20">
@@ -6774,102 +6806,102 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>8</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48">
         <v>1</v>
       </c>
       <c r="G48" s="20">
         <v>45498</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>8</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49">
         <v>2</v>
       </c>
       <c r="G49" s="20">
         <v>45498</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>8</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50">
         <v>3</v>
       </c>
       <c r="G50" s="20">
         <v>45498</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="34">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>8</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51">
         <v>4</v>
       </c>
       <c r="G51" s="20">
         <v>45498</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="34">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>8</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52">
         <v>5</v>
       </c>
       <c r="G52" s="20">
         <v>45498</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="34">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>9</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53">
         <v>1</v>
       </c>
       <c r="G53" s="20">
@@ -6879,17 +6911,17 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>9</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54">
         <v>2</v>
       </c>
       <c r="G54" s="20">
@@ -6899,17 +6931,17 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="34">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>9</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55">
         <v>3</v>
       </c>
       <c r="G55" s="20">
@@ -6919,17 +6951,17 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="34">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>9</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56">
         <v>4</v>
       </c>
       <c r="G56" s="20">
@@ -6939,17 +6971,17 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>9</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57">
         <v>5</v>
       </c>
       <c r="G57" s="20">
@@ -6959,102 +6991,102 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="34">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>10</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58">
         <v>1</v>
       </c>
       <c r="G58" s="20">
         <v>45463</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="34">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>10</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E59">
         <v>2</v>
       </c>
       <c r="G59" s="20">
         <v>45463</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="34">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>10</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60">
         <v>3</v>
       </c>
       <c r="G60" s="20">
         <v>45463</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="34">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>10</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E61">
         <v>4</v>
       </c>
       <c r="G61" s="20">
         <v>45463</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="34">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>10</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="34" t="s">
+      <c r="D62" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="34">
+      <c r="E62">
         <v>5</v>
       </c>
       <c r="G62" s="20">
         <v>45463</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="34">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>2</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" t="s">
         <v>182</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" t="s">
         <v>182</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63">
         <v>999</v>
       </c>
       <c r="G63" s="20">
@@ -7064,17 +7096,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="34">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>3</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" t="s">
         <v>183</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="34">
+      <c r="E64">
         <v>999</v>
       </c>
       <c r="G64" s="20">
@@ -7084,17 +7116,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="34">
-        <v>4</v>
-      </c>
-      <c r="B65" s="34" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
         <v>184</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D65" t="s">
         <v>184</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E65">
         <v>999</v>
       </c>
       <c r="G65" s="20">
@@ -7104,17 +7136,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="34">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>5</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" t="s">
         <v>185</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" t="s">
         <v>185</v>
       </c>
-      <c r="E66" s="34">
+      <c r="E66">
         <v>999</v>
       </c>
       <c r="G66" s="20">
@@ -7124,17 +7156,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="34">
-        <v>6</v>
-      </c>
-      <c r="B67" s="34" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="D67" t="s">
         <v>186</v>
       </c>
-      <c r="E67" s="34">
+      <c r="E67">
         <v>999</v>
       </c>
       <c r="G67" s="20">
@@ -7144,17 +7176,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="34">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>7</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" t="s">
         <v>187</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68">
         <v>999</v>
       </c>
       <c r="G68" s="20">
@@ -7164,17 +7196,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="34">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>8</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" t="s">
         <v>188</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69">
         <v>999</v>
       </c>
       <c r="G69" s="20">
@@ -7184,17 +7216,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="34">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>9</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D70" t="s">
         <v>189</v>
       </c>
-      <c r="E70" s="34">
+      <c r="E70">
         <v>999</v>
       </c>
       <c r="G70" s="20">
@@ -7204,17 +7236,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="34">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>10</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71">
         <v>999</v>
       </c>
       <c r="G71" s="20">
@@ -7224,17 +7256,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="34">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>11</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" t="s">
         <v>214</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72">
         <v>0</v>
       </c>
       <c r="G72" s="20">
@@ -7257,16 +7289,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -7298,7 +7330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7322,16 +7354,16 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -7348,7 +7380,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7378,14 +7410,14 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>107</v>
       </c>
@@ -7396,7 +7428,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>111</v>
       </c>
@@ -7404,7 +7436,7 @@
         <v>206.92000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>25</v>
       </c>
@@ -7416,7 +7448,7 @@
         <v>0.28000000000000114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>26</v>
       </c>
@@ -7428,7 +7460,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>27</v>
       </c>
@@ -7440,7 +7472,7 @@
         <v>-5.0000000000011369E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>28</v>
       </c>
@@ -7452,7 +7484,7 @@
         <v>-5.0000000000011369E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>29</v>
       </c>
@@ -7464,7 +7496,7 @@
         <v>-0.90000000000000568</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>30</v>
       </c>
@@ -7476,7 +7508,7 @@
         <v>0.36666666666670267</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>31</v>
       </c>
@@ -7488,7 +7520,7 @@
         <v>1.4333333333333087</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>32</v>
       </c>
@@ -7500,7 +7532,7 @@
         <v>-0.56666666666663446</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>33</v>
       </c>
@@ -7512,7 +7544,7 @@
         <v>0.92380952380946724</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>34</v>
       </c>
@@ -7524,7 +7556,7 @@
         <v>0.80952380952382441</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>35</v>
       </c>
@@ -7536,7 +7568,7 @@
         <v>2.2761904761904646</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>36</v>
       </c>
@@ -7548,7 +7580,7 @@
         <v>2.3571428571428896</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>37</v>
       </c>
@@ -7560,7 +7592,7 @@
         <v>0.87142857142856656</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>38</v>
       </c>
@@ -7572,7 +7604,7 @@
         <v>0.37142857142859498</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>39</v>
       </c>
@@ -7584,7 +7616,7 @@
         <v>0.84047619047615285</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>108</v>
       </c>
@@ -7605,12 +7637,12 @@
       <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -7621,7 +7653,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>206.4</v>
       </c>
@@ -7633,7 +7665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>207.4</v>
       </c>
@@ -7645,7 +7677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>206.6</v>
       </c>
@@ -7657,7 +7689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>204.8</v>
       </c>
@@ -7669,7 +7701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>209.4</v>
       </c>
@@ -7681,7 +7713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>208.6</v>
       </c>
@@ -7693,7 +7725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>205.2</v>
       </c>
@@ -7705,7 +7737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>207.2</v>
       </c>
@@ -7717,7 +7749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>207.2</v>
       </c>
@@ -7729,7 +7761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>206.8</v>
       </c>
@@ -7741,7 +7773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>208.2</v>
       </c>
@@ -7753,7 +7785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>209.3</v>
       </c>
@@ -7765,7 +7797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>209</v>
       </c>
@@ -7777,7 +7809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>207.4</v>
       </c>
@@ -7789,7 +7821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>207.6</v>
       </c>
@@ -7801,7 +7833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>209.2</v>
       </c>
@@ -7813,7 +7845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>209.2</v>
       </c>
@@ -7825,7 +7857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>209.2</v>
       </c>
@@ -7837,7 +7869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>209.6</v>
       </c>
@@ -7849,7 +7881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>208.6</v>
       </c>
@@ -7861,7 +7893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>206.8</v>
       </c>
@@ -7873,7 +7905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>209.6</v>
       </c>
@@ -7885,7 +7917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>208.8</v>
       </c>
@@ -7897,7 +7929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>208.8</v>
       </c>
@@ -7909,7 +7941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>208.2</v>
       </c>
@@ -7921,7 +7953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>206.8</v>
       </c>
@@ -7933,7 +7965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>208.6</v>
       </c>
@@ -7945,7 +7977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>208.2</v>
       </c>
@@ -7957,7 +7989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>207.2</v>
       </c>
@@ -7969,7 +8001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>208.8</v>
       </c>
@@ -7981,7 +8013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>209.6</v>
       </c>
@@ -7993,7 +8025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>208.8</v>
       </c>
@@ -8005,7 +8037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>210</v>
       </c>
@@ -8017,7 +8049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>209.6</v>
       </c>
@@ -8029,7 +8061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>208.2</v>
       </c>
@@ -8041,7 +8073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>206.8</v>
       </c>
@@ -8053,7 +8085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>208.2</v>
       </c>
@@ -8065,7 +8097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>208.2</v>
       </c>
@@ -8077,7 +8109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>210.8</v>
       </c>
@@ -8089,7 +8121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>211.4</v>
       </c>
@@ -8101,7 +8133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>208.8</v>
       </c>
@@ -8113,7 +8145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>212.8</v>
       </c>
@@ -8125,7 +8157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>209.2</v>
       </c>
@@ -8137,7 +8169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>209.8</v>
       </c>
@@ -8149,7 +8181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>210</v>
       </c>
@@ -8161,7 +8193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>207.6</v>
       </c>
@@ -8173,7 +8205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>210.8</v>
       </c>
@@ -8185,7 +8217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>211.8</v>
       </c>
@@ -8197,7 +8229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>209.8</v>
       </c>
@@ -8209,7 +8241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>210.4</v>
       </c>
@@ -8221,7 +8253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>212.6</v>
       </c>
@@ -8233,7 +8265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>213.2</v>
       </c>
@@ -8245,7 +8277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>212</v>
       </c>
@@ -8257,7 +8289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>213.8</v>
       </c>
@@ -8269,7 +8301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>211.8</v>
       </c>
@@ -8281,7 +8313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>213.8</v>
       </c>
@@ -8293,7 +8325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>213.4</v>
       </c>
@@ -8305,7 +8337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>214.2</v>
       </c>
@@ -8317,7 +8349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>214.8</v>
       </c>
@@ -8329,7 +8361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>212.4</v>
       </c>
@@ -8341,7 +8373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>215.8</v>
       </c>
@@ -8353,7 +8385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>216.2</v>
       </c>
@@ -8365,7 +8397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>216</v>
       </c>
@@ -8377,7 +8409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>216</v>
       </c>
@@ -8389,7 +8421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>217</v>
       </c>
@@ -8401,7 +8433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>214.6</v>
       </c>
@@ -8413,7 +8445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>216</v>
       </c>
@@ -8425,7 +8457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>215.4</v>
       </c>
@@ -8437,7 +8469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>217.6</v>
       </c>
@@ -8449,7 +8481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>218.6</v>
       </c>
@@ -8461,7 +8493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>217</v>
       </c>
@@ -8473,7 +8505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>214</v>
       </c>
@@ -8485,7 +8517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>215</v>
       </c>
@@ -8497,7 +8529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>216</v>
       </c>
@@ -8509,7 +8541,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>217</v>
       </c>
@@ -8521,7 +8553,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>216.4</v>
       </c>
@@ -8533,7 +8565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>216</v>
       </c>
@@ -8545,7 +8577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>217.4</v>
       </c>
@@ -8557,7 +8589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>218</v>
       </c>
@@ -8569,7 +8601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>217</v>
       </c>
@@ -8581,7 +8613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>219.4</v>
       </c>
@@ -8593,7 +8625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>217</v>
       </c>
@@ -8605,7 +8637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>215.4</v>
       </c>
@@ -8617,7 +8649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>218</v>
       </c>
@@ -8629,7 +8661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>217.5</v>
       </c>
@@ -8641,7 +8673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>217.5</v>
       </c>
@@ -8653,7 +8685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>216.2</v>
       </c>
@@ -8665,7 +8697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>217</v>
       </c>
@@ -8677,7 +8709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>217.6</v>
       </c>
@@ -8689,7 +8721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>219</v>
       </c>
@@ -8701,7 +8733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>217.4</v>
       </c>
@@ -8713,7 +8745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>215.6</v>
       </c>
@@ -8725,7 +8757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>219</v>
       </c>
@@ -8737,7 +8769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>220</v>
       </c>
@@ -8749,7 +8781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>219</v>
       </c>
@@ -8761,7 +8793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>218</v>
       </c>
@@ -8773,7 +8805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>220</v>
       </c>
@@ -8785,7 +8817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>220</v>
       </c>
@@ -8797,7 +8829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>220</v>
       </c>
@@ -8809,7 +8841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>219</v>
       </c>
@@ -8821,7 +8853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>216.8</v>
       </c>
@@ -8846,21 +8878,21 @@
       <selection activeCell="P3" sqref="P3:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="28" max="28" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -8943,7 +8975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
@@ -8985,7 +9017,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
@@ -9021,7 +9053,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -9057,7 +9089,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
@@ -9093,7 +9125,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
@@ -9129,7 +9161,7 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>90</v>
       </c>
@@ -9165,13 +9197,13 @@
         <v>45559</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="M8" s="8"/>
       <c r="AB8" s="8">
         <v>45547</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="U9" s="8">
         <v>45547</v>
       </c>
@@ -9189,12 +9221,12 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
@@ -9238,7 +9270,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -9251,7 +9283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -9263,7 +9295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -9275,7 +9307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -9287,7 +9319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -9299,10 +9331,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -9328,7 +9360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -9345,7 +9377,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -9371,7 +9403,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -9397,7 +9429,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -9423,7 +9455,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -9449,10 +9481,10 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" s="8"/>
     </row>
   </sheetData>
@@ -9469,13 +9501,13 @@
       <selection activeCell="O2" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
@@ -9519,7 +9551,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -9531,7 +9563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -9543,7 +9575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -9555,7 +9587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -9567,7 +9599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>79</v>
       </c>
@@ -9579,7 +9611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>102</v>
       </c>
@@ -9591,7 +9623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>78</v>
       </c>
@@ -9603,7 +9635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -9641,7 +9673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -9673,7 +9705,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -9699,7 +9731,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -9725,7 +9757,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
@@ -9751,7 +9783,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
@@ -9777,7 +9809,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>77</v>
       </c>
@@ -9803,7 +9835,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>78</v>
       </c>
@@ -9842,12 +9874,12 @@
       <selection activeCell="O2" sqref="O2:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
@@ -9891,7 +9923,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -9903,7 +9935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -9915,7 +9947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -9927,7 +9959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -9939,7 +9971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -9951,7 +9983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -9963,14 +9995,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -10008,7 +10040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -10034,7 +10066,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -10060,7 +10092,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -10071,7 +10103,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -10082,7 +10114,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -10099,7 +10131,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -10125,7 +10157,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>105</v>
       </c>
@@ -10143,13 +10175,13 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -10229,7 +10261,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -10250,7 +10282,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -10271,7 +10303,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -10298,7 +10330,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -10323,7 +10355,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -10344,7 +10376,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -10380,7 +10412,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
@@ -10416,7 +10448,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
         <v>174</v>
       </c>
@@ -10442,7 +10474,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D10" s="11"/>
       <c r="Q10" t="s">
         <v>175</v>
@@ -10469,23 +10501,23 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="12"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="F25" s="8"/>
     </row>
@@ -10503,22 +10535,22 @@
       <selection activeCell="O400" sqref="O400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>160</v>
       </c>
@@ -10574,7 +10606,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10624,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10670,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10716,7 +10748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10762,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -10808,7 +10840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -10854,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10900,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10946,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -10992,7 +11024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11038,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11080,7 +11112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11120,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11170,7 +11202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -11218,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -11266,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -11312,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -11362,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -11408,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -11454,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -11500,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11542,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -11588,7 +11620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -11628,7 +11660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -11674,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -11720,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -11766,7 +11798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -11812,7 +11844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -11862,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -11908,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -11954,7 +11986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -12002,7 +12034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -12050,7 +12082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -12096,7 +12128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -12142,7 +12174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -12188,7 +12220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -12234,7 +12266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -12274,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -12324,7 +12356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -12370,7 +12402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -12418,7 +12450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -12464,7 +12496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -12510,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -12556,7 +12588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -12602,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -12652,7 +12684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -12698,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -12744,7 +12776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -12790,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -12836,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -12882,7 +12914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -12922,7 +12954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -12968,7 +13000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -13014,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -13060,7 +13092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -13106,7 +13138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -13156,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -13204,7 +13236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -13250,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -13286,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -13334,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -13382,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -13428,7 +13460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -13474,7 +13506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -13520,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -13566,7 +13598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -13612,7 +13644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -13654,7 +13686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -13704,7 +13736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -13750,7 +13782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -13798,7 +13830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -13844,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -13878,7 +13910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -13924,7 +13956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -13958,7 +13990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -14008,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -14054,7 +14086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -14100,7 +14132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -14136,7 +14168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -14182,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -14218,7 +14250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -14258,7 +14290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -14304,7 +14336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -14350,7 +14382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -14396,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -14442,7 +14474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -14492,7 +14524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -14538,7 +14570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -14580,7 +14612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -14616,7 +14648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -14664,7 +14696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -14712,7 +14744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -14758,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -14804,7 +14836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -14850,7 +14882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -14896,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -14942,7 +14974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -14982,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -15032,7 +15064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -15078,7 +15110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -15124,7 +15156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -15170,7 +15202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -15216,7 +15248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -15262,7 +15294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -15302,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -15348,7 +15380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -15394,7 +15426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -15430,7 +15462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -15476,7 +15508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -15518,7 +15550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -15564,7 +15596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -15610,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -15656,7 +15688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -15692,7 +15724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -15728,7 +15760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -15764,7 +15796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -15810,7 +15842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -15856,7 +15888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -15902,7 +15934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -15948,7 +15980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -15984,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -16030,7 +16062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -16076,7 +16108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -16122,7 +16154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -16168,7 +16200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -16204,7 +16236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -16240,7 +16272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -16280,7 +16312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -16326,7 +16358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -16372,7 +16404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -16418,7 +16450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -16464,7 +16496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -16514,7 +16546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -16560,7 +16592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -16596,7 +16628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -16632,7 +16664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -16674,7 +16706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -16716,7 +16748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -16762,7 +16794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -16808,7 +16840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -16854,7 +16886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -16900,7 +16932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4</v>
       </c>
@@ -16946,7 +16978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -16982,7 +17014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -17032,7 +17064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -17078,7 +17110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4</v>
       </c>
@@ -17124,7 +17156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
@@ -17170,7 +17202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -17206,7 +17238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -17250,7 +17282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4</v>
       </c>
@@ -17286,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4</v>
       </c>
@@ -17336,7 +17368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -17382,7 +17414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -17428,7 +17460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
@@ -17474,7 +17506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>4</v>
       </c>
@@ -17520,7 +17552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4</v>
       </c>
@@ -17566,7 +17598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4</v>
       </c>
@@ -17606,7 +17638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4</v>
       </c>
@@ -17642,7 +17674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -17688,7 +17720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -17734,7 +17766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -17780,7 +17812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5</v>
       </c>
@@ -17830,7 +17862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5</v>
       </c>
@@ -17876,7 +17908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5</v>
       </c>
@@ -17912,7 +17944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>5</v>
       </c>
@@ -17948,7 +17980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>5</v>
       </c>
@@ -17996,7 +18028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -18044,7 +18076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5</v>
       </c>
@@ -18090,7 +18122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5</v>
       </c>
@@ -18140,7 +18172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5</v>
       </c>
@@ -18186,7 +18218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>5</v>
       </c>
@@ -18234,7 +18266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -18280,7 +18312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>5</v>
       </c>
@@ -18326,7 +18358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>5</v>
       </c>
@@ -18372,7 +18404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>5</v>
       </c>
@@ -18414,7 +18446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>5</v>
       </c>
@@ -18464,7 +18496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5</v>
       </c>
@@ -18510,7 +18542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>5</v>
       </c>
@@ -18556,7 +18588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5</v>
       </c>
@@ -18602,7 +18634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5</v>
       </c>
@@ -18638,7 +18670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
@@ -18674,7 +18706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>5</v>
       </c>
@@ -18714,7 +18746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>5</v>
       </c>
@@ -18760,7 +18792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5</v>
       </c>
@@ -18806,7 +18838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -18852,7 +18884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>5</v>
       </c>
@@ -18898,7 +18930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5</v>
       </c>
@@ -18944,7 +18976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>5</v>
       </c>
@@ -18990,7 +19022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5</v>
       </c>
@@ -19036,7 +19068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>5</v>
       </c>
@@ -19082,7 +19114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5</v>
       </c>
@@ -19130,7 +19162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>5</v>
       </c>
@@ -19178,7 +19210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>5</v>
       </c>
@@ -19224,7 +19256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5</v>
       </c>
@@ -19274,7 +19306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>5</v>
       </c>
@@ -19320,7 +19352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -19366,7 +19398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>5</v>
       </c>
@@ -19402,7 +19434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>5</v>
       </c>
@@ -19448,7 +19480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>5</v>
       </c>
@@ -19494,7 +19526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>5</v>
       </c>
@@ -19534,7 +19566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>5</v>
       </c>
@@ -19580,7 +19612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>5</v>
       </c>
@@ -19626,7 +19658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>5</v>
       </c>
@@ -19662,7 +19694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>5</v>
       </c>
@@ -19708,7 +19740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5</v>
       </c>
@@ -19758,7 +19790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>5</v>
       </c>
@@ -19804,7 +19836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>5</v>
       </c>
@@ -19850,7 +19882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5</v>
       </c>
@@ -19896,7 +19928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>5</v>
       </c>
@@ -19944,7 +19976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>5</v>
       </c>
@@ -19992,7 +20024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>5</v>
       </c>
@@ -20038,7 +20070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>5</v>
       </c>
@@ -20084,7 +20116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>5</v>
       </c>
@@ -20130,7 +20162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>5</v>
       </c>
@@ -20176,7 +20208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5</v>
       </c>
@@ -20222,7 +20254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5</v>
       </c>
@@ -20258,7 +20290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5</v>
       </c>
@@ -20308,7 +20340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>5</v>
       </c>
@@ -20354,7 +20386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5</v>
       </c>
@@ -20400,7 +20432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5</v>
       </c>
@@ -20446,7 +20478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5</v>
       </c>
@@ -20492,7 +20524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>5</v>
       </c>
@@ -20538,7 +20570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5</v>
       </c>
@@ -20578,7 +20610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5</v>
       </c>
@@ -20624,7 +20656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>5</v>
       </c>
@@ -20670,7 +20702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>5</v>
       </c>
@@ -20716,7 +20748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>5</v>
       </c>
@@ -20752,7 +20784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>6</v>
       </c>
@@ -20802,7 +20834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>6</v>
       </c>
@@ -20848,7 +20880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>6</v>
       </c>
@@ -20894,7 +20926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>6</v>
       </c>
@@ -20940,7 +20972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>6</v>
       </c>
@@ -20988,7 +21020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>6</v>
       </c>
@@ -21036,7 +21068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>6</v>
       </c>
@@ -21082,7 +21114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>6</v>
       </c>
@@ -21128,7 +21160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>6</v>
       </c>
@@ -21174,7 +21206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>6</v>
       </c>
@@ -21220,7 +21252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>6</v>
       </c>
@@ -21266,7 +21298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>6</v>
       </c>
@@ -21302,7 +21334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>6</v>
       </c>
@@ -21352,7 +21384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>6</v>
       </c>
@@ -21398,7 +21430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>6</v>
       </c>
@@ -21446,7 +21478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>6</v>
       </c>
@@ -21492,7 +21524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>6</v>
       </c>
@@ -21528,7 +21560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>6</v>
       </c>
@@ -21574,7 +21606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>6</v>
       </c>
@@ -21610,7 +21642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>6</v>
       </c>
@@ -21662,7 +21694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>6</v>
       </c>
@@ -21708,7 +21740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>6</v>
       </c>
@@ -21754,7 +21786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>6</v>
       </c>
@@ -21800,7 +21832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>6</v>
       </c>
@@ -21846,7 +21878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>6</v>
       </c>
@@ -21892,7 +21924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>6</v>
       </c>
@@ -21932,7 +21964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>6</v>
       </c>
@@ -21978,7 +22010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>6</v>
       </c>
@@ -22024,7 +22056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>6</v>
       </c>
@@ -22070,7 +22102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>6</v>
       </c>
@@ -22106,7 +22138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>6</v>
       </c>
@@ -22156,7 +22188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>6</v>
       </c>
@@ -22202,7 +22234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>6</v>
       </c>
@@ -22248,7 +22280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6</v>
       </c>
@@ -22294,7 +22326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>6</v>
       </c>
@@ -22342,7 +22374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>6</v>
       </c>
@@ -22390,7 +22422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>6</v>
       </c>
@@ -22436,7 +22468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>6</v>
       </c>
@@ -22482,7 +22514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>6</v>
       </c>
@@ -22528,7 +22560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6</v>
       </c>
@@ -22574,7 +22606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>6</v>
       </c>
@@ -22620,7 +22652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>6</v>
       </c>
@@ -22656,7 +22688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>6</v>
       </c>
@@ -22706,7 +22738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>6</v>
       </c>
@@ -22752,7 +22784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>6</v>
       </c>
@@ -22800,7 +22832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>6</v>
       </c>
@@ -22846,7 +22878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>6</v>
       </c>
@@ -22882,7 +22914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>6</v>
       </c>
@@ -22928,7 +22960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>6</v>
       </c>
@@ -22964,7 +22996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>6</v>
       </c>
@@ -23000,7 +23032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6</v>
       </c>
@@ -23048,7 +23080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>6</v>
       </c>
@@ -23094,7 +23126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>6</v>
       </c>
@@ -23140,7 +23172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>6</v>
       </c>
@@ -23186,7 +23218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>6</v>
       </c>
@@ -23224,7 +23256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>6</v>
       </c>
@@ -23272,7 +23304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6</v>
       </c>
@@ -23312,7 +23344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>6</v>
       </c>
@@ -23358,7 +23390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>6</v>
       </c>
@@ -23404,7 +23436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>6</v>
       </c>
@@ -23450,7 +23482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>6</v>
       </c>
@@ -23496,7 +23528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6</v>
       </c>
@@ -23546,7 +23578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>6</v>
       </c>
@@ -23592,7 +23624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>6</v>
       </c>
@@ -23638,7 +23670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>6</v>
       </c>
@@ -23684,7 +23716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>6</v>
       </c>
@@ -23732,7 +23764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6</v>
       </c>
@@ -23780,7 +23812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>6</v>
       </c>
@@ -23826,7 +23858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>6</v>
       </c>
@@ -23872,7 +23904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>6</v>
       </c>
@@ -23918,7 +23950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>6</v>
       </c>
@@ -23964,7 +23996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>6</v>
       </c>
@@ -24000,7 +24032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>6</v>
       </c>
@@ -24040,7 +24072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>6</v>
       </c>
@@ -24088,7 +24120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>6</v>
       </c>
@@ -24138,7 +24170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>6</v>
       </c>
@@ -24184,7 +24216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>6</v>
       </c>
@@ -24232,7 +24264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>6</v>
       </c>
@@ -24278,7 +24310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>6</v>
       </c>
@@ -24324,7 +24356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>6</v>
       </c>
@@ -24370,7 +24402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>6</v>
       </c>
@@ -24416,7 +24448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>6</v>
       </c>
@@ -24466,7 +24498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>6</v>
       </c>
@@ -24512,7 +24544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>6</v>
       </c>
@@ -24558,7 +24590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>6</v>
       </c>
@@ -24604,7 +24636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>6</v>
       </c>
@@ -24650,7 +24682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>6</v>
       </c>
@@ -24696,7 +24728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>6</v>
       </c>
@@ -24736,7 +24768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6</v>
       </c>
@@ -24782,7 +24814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>6</v>
       </c>
@@ -24828,7 +24860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6</v>
       </c>
@@ -24874,7 +24906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>6</v>
       </c>
@@ -24920,7 +24952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>6</v>
       </c>
@@ -24970,7 +25002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>6</v>
       </c>
@@ -25016,7 +25048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>6</v>
       </c>
@@ -25052,7 +25084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>6</v>
       </c>
@@ -25088,7 +25120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>6</v>
       </c>
@@ -25136,7 +25168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>6</v>
       </c>
@@ -25184,7 +25216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>6</v>
       </c>
@@ -25230,7 +25262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>6</v>
       </c>
@@ -25276,7 +25308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>6</v>
       </c>
@@ -25322,7 +25354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>6</v>
       </c>
@@ -25368,7 +25400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>6</v>
       </c>
@@ -25414,7 +25446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>6</v>
       </c>
@@ -25454,7 +25486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>6</v>
       </c>
@@ -25504,7 +25536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>6</v>
       </c>
@@ -25550,7 +25582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>6</v>
       </c>
@@ -25598,7 +25630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>6</v>
       </c>
@@ -25644,7 +25676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>6</v>
       </c>
@@ -25690,7 +25722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>6</v>
       </c>
@@ -25726,7 +25758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>6</v>
       </c>
@@ -25772,7 +25804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -25820,7 +25852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>6</v>
       </c>
@@ -25856,7 +25888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>6</v>
       </c>
@@ -25902,7 +25934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -25948,7 +25980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>6</v>
       </c>
@@ -25994,7 +26026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>6</v>
       </c>
@@ -26040,7 +26072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>6</v>
       </c>
@@ -26086,7 +26118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>6</v>
       </c>
@@ -26134,7 +26166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>6</v>
       </c>
@@ -26174,7 +26206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>6</v>
       </c>
@@ -26210,7 +26242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>6</v>
       </c>
@@ -26256,7 +26288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6</v>
       </c>
@@ -26292,7 +26324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>6</v>
       </c>
@@ -26338,7 +26370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>6</v>
       </c>
@@ -26388,7 +26420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6</v>
       </c>
@@ -26434,7 +26466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>6</v>
       </c>
@@ -26480,7 +26512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>6</v>
       </c>
@@ -26526,7 +26558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>6</v>
       </c>
@@ -26574,7 +26606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>6</v>
       </c>
@@ -26622,7 +26654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>6</v>
       </c>
@@ -26668,7 +26700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>6</v>
       </c>
@@ -26718,7 +26750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>6</v>
       </c>
@@ -26764,7 +26796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>6</v>
       </c>
@@ -26810,7 +26842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>6</v>
       </c>
@@ -26856,7 +26888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>6</v>
       </c>
@@ -26896,7 +26928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>6</v>
       </c>
@@ -26946,7 +26978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>6</v>
       </c>
@@ -26992,7 +27024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>6</v>
       </c>
@@ -27028,7 +27060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>6</v>
       </c>
@@ -27064,7 +27096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>6</v>
       </c>
@@ -27100,7 +27132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>6</v>
       </c>
@@ -27136,7 +27168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>6</v>
       </c>
@@ -27172,7 +27204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>6</v>
       </c>
@@ -27222,7 +27254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>6</v>
       </c>
@@ -27268,7 +27300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>6</v>
       </c>
@@ -27314,7 +27346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>6</v>
       </c>
@@ -27360,7 +27392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>6</v>
       </c>
@@ -27406,7 +27438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>6</v>
       </c>
@@ -27452,7 +27484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>6</v>
       </c>
@@ -27492,7 +27524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>6</v>
       </c>
@@ -27538,7 +27570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>6</v>
       </c>
@@ -27584,7 +27616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>6</v>
       </c>
@@ -27630,7 +27662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>6</v>
       </c>
@@ -27676,7 +27708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>6</v>
       </c>
@@ -27726,7 +27758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>6</v>
       </c>
@@ -27772,7 +27804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6</v>
       </c>
@@ -27818,7 +27850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>6</v>
       </c>
@@ -27864,7 +27896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>6</v>
       </c>
@@ -27910,7 +27942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>6</v>
       </c>
@@ -27956,7 +27988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>6</v>
       </c>
@@ -28002,7 +28034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>6</v>
       </c>
@@ -28048,7 +28080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>6</v>
       </c>
@@ -28094,7 +28126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>6</v>
       </c>
@@ -28130,7 +28162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>6</v>
       </c>
@@ -28166,7 +28198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>6</v>
       </c>
@@ -28206,7 +28238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>6</v>
       </c>
@@ -28254,7 +28286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>6</v>
       </c>
@@ -28290,7 +28322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>6</v>
       </c>
@@ -28326,7 +28358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>6</v>
       </c>
@@ -28362,7 +28394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>6</v>
       </c>
@@ -28398,7 +28430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>6</v>
       </c>
@@ -28434,7 +28466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>6</v>
       </c>
@@ -28480,7 +28512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>6</v>
       </c>
@@ -28526,7 +28558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>6</v>
       </c>
@@ -28574,7 +28606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>6</v>
       </c>

--- a/data/liftingexceldoc.xlsx
+++ b/data/liftingexceldoc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boydk\Desktop\Personal Lifting Project\py-project-directory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B9CCC-550E-4175-9FD8-30BD5DB29C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB3D38-4EFE-4D2E-A1F0-0EF43AED41C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8B3EE465-2883-4BE7-9439-FC93EB33E87B}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="208">
   <si>
     <t>Mesocycle 1</t>
   </si>
@@ -677,9 +677,6 @@
   <si>
     <t>Off Day</t>
   </si>
-  <si>
-    <t>Day</t>
-  </si>
 </sst>
 </file>
 
@@ -6538,8 +6535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6486572-3031-4711-8E4A-D6D5766FDAF2}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6552,7 +6549,7 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
